--- a/fundData/沪深300增强指数型基金数据.xlsx
+++ b/fundData/沪深300增强指数型基金数据.xlsx
@@ -1113,12 +1113,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>007143</t>
+          <t>000312</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>国投瑞银沪深300指数量化增强A</t>
+          <t>华安沪深300增强A</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2019-06-11</t>
+          <t>2013-09-27</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1138,12 +1138,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>000312</t>
+          <t>007143</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>华安沪深300增强A</t>
+          <t>国投瑞银沪深300指数量化增强A</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2013-09-27</t>
+          <t>2019-06-11</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3440,12 +3440,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>022962</t>
+          <t>020352</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>兴全沪深300指数增强(LOF)Y</t>
+          <t>国富沪深300指数增强C</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3465,12 +3465,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>020352</t>
+          <t>022962</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>国富沪深300指数增强C</t>
+          <t>兴全沪深300指数增强(LOF)Y</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
